--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL2.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL2.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -465,7 +465,7 @@
         <v>1.13783361549636</v>
       </c>
       <c r="G2" t="n">
-        <v>0.768516205744629</v>
+        <v>0.76851620574463</v>
       </c>
       <c r="H2" t="n">
         <v>1.68462984498692</v>
@@ -541,16 +541,16 @@
         <v>1.17283998113142</v>
       </c>
       <c r="G4" t="n">
-        <v>0.674244831841098</v>
+        <v>0.674244831841097</v>
       </c>
       <c r="H4" t="n">
         <v>2.04013965903787</v>
       </c>
       <c r="I4" t="n">
-        <v>0.56445941609252</v>
+        <v>0.564459416092518</v>
       </c>
       <c r="J4" t="n">
-        <v>0.572441512460185</v>
+        <v>0.572441512460186</v>
       </c>
       <c r="K4" t="n">
         <v>1029</v>
@@ -608,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.290472686398042</v>
+        <v>0.290472686398043</v>
       </c>
       <c r="E6" t="n">
         <v>0.24096851807771</v>
@@ -626,7 +626,7 @@
         <v>1.2054383232932</v>
       </c>
       <c r="J6" t="n">
-        <v>0.228034134491117</v>
+        <v>0.228034134491116</v>
       </c>
       <c r="K6" t="n">
         <v>1029</v>
@@ -661,7 +661,7 @@
         <v>1.97507524832922</v>
       </c>
       <c r="I7" t="n">
-        <v>0.122241829052671</v>
+        <v>0.12224182905267</v>
       </c>
       <c r="J7" t="n">
         <v>0.902707500046953</v>
@@ -684,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.037571901499569</v>
+        <v>0.0375719014995685</v>
       </c>
       <c r="E8" t="n">
         <v>0.379440297594327</v>
@@ -699,10 +699,10 @@
         <v>2.18425516485828</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0990192705882244</v>
+        <v>0.0990192705882228</v>
       </c>
       <c r="J8" t="n">
-        <v>0.921122969579241</v>
+        <v>0.921122969579242</v>
       </c>
       <c r="K8" t="n">
         <v>1029</v>
@@ -737,10 +737,10 @@
         <v>1.86515463712377</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.547755112968988</v>
+        <v>-0.547755112968989</v>
       </c>
       <c r="J9" t="n">
-        <v>0.583860063647976</v>
+        <v>0.583860063647975</v>
       </c>
       <c r="K9" t="n">
         <v>493</v>
